--- a/biology/Virologie/Virus_de_la_rougeole/Virus_de_la_rougeole.xlsx
+++ b/biology/Virologie/Virus_de_la_rougeole/Virus_de_la_rougeole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le virus de la rougeole (aussi MV pour measles virus) est un virus appartenant au genre morbillivirus de la famille des Paramyxovirus. C’est un virus très contagieux pouvant causer des problèmes graves, voire mortels, comme des encéphalites. Tout n’est pas connu à son sujet, principalement les récepteurs cellulaires qu’il cible. Il est important de poursuivre les recherches afin de trouver de meilleurs vaccins contre ce virus. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est un virus à ARN.
 Ce virus est rapidement inactivé par la chaleur (30 minutes à 56 °C) ou la lumière (ultraviolets). Il  n'est plus infectieux après trente-six heures d'exposition à l'air libre.
@@ -545,9 +559,11 @@
           <t>Gènes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le virus comporte six gènes[3] dénommées : F, H, L, M, N et P :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le virus comporte six gènes dénommées : F, H, L, M, N et P :
 M matrice
 N nucléocapside
 P phospholipide
@@ -581,9 +597,11 @@
           <t>Liste des sous-taxons</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (25 mai 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (25 mai 2010) :
 Measles virus Calgary/CAN/40.01
 Measles virus genotypes and isolates
 Measles virus strain AIK-C
@@ -627,39 +645,12 @@
           <t>Composantes du virus</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le MV est un virus possédant une enveloppe faite d’une double couche de lipides qui entoure une nucléocapside à symétrie hélicoïdale. Son diamètre varie entre 120 et 300 nm.
-Génome
-Son génome est un brin d’ARN négatif non segmenté composé de 15 894 nucléotides[5] formant 6 gènes qui codent au moins 8 protéines différentes. Un seul promoteur est présent dans le génome et se trouve à l’extrémité 3’. Il a une longueur de 56 nucléotides. À l’autre extrémité se trouve le terminateur d’une longueur de 40 nucléotides. Chaque gène est séparé du suivant par 3 nucléotides qui ne sont pas transcrits lors de la transcription. 
-Sur le brin positif, l’ordre des 6 gènes est le suivant : N - P/V/C - M - F - H - L ; chaque lettre représentant une protéine. Dans le cas du deuxième gène deux phénomènes se produisent entraînant la production d'au moins trois protéines :
-une initiation alternative de traduction de l'ARN messager conduit à la production de la protéine P ou C[6]
-une édition de l'ARN messager - par ajout de G par l'ARN polymérase entraînant un changement de cadre de lecture - conduit à la production de la protéine V[7]
-Protéines virales
-La nucléoprotéine (N)
-La nucléoprotéine est composée de 525 acides aminés[8]. C'est la protéine la plus abondante dans le virus. Elle forme la nucléocapside en se liant tout le long de l'ARN génomique. Elle interagit aussi avec la phosphoprotéine (P), soit à l'état de monomère soluble, soit à l'état de nucléocapside.
-Elle est constituée de deux domaines[9] :
-un domaine structuré N-terminal d'environ 400 résidus qui contient le domaine de liaison à l'ARN. Ce domaine peut se lier à P lorsque N n'est pas liée à l'ARN
-un domaine non structuré d'une centaine de résidus en C-terminal qui contient un site de liaison à P accessible dans le contexte de la nucléocapside
-La phosphoprotéine (P)
-La phosphoprotéine est une protéine de 507 acides aminés[10] qui correspond au produit de traduction le plus long du deuxième gène. Dans le virus, cette protéine a deux rôles : un rôle de chaperonne pour garder N sous forme monomérique et l’empêcher de lier de l'ARN et un rôle de cofacteur de l'ARN polymérase. Dans ce dernier cas, P interagit à la fois avec la nucléocapside et avec l'ARN polymérase.
-P est une protéine tétramérique, elle est composée de deux domaines structurés :
-un domaine central d'environ 80 résidus qui permet sa tétramérisation[11] et qui semble aussi contenir le site de liaison à l'ARN polymérase[12]
-un domaine C-terminal d'une quarantaine de résidus responsable de l'interaction avec le domaine C-terminal non structuré de N dans le contexte de la nucléocapside[13]
-Entre ces domaines structurés, P possède des régions désordonnées aussi responsables d'interactions. Les 300 premiers résidus contiennent le deuxième site de liaison à N (rôle de chaperonne) mais aussi un site d'interaction avec la protéine STAT1[14],[15].
-La protéine V
-Protéine V : La principale fonction de cette protéine est de bloquer la réponse immunitaire innée de l’hôte et ainsi permettre la propagation du virus. Elle se lie à l’hélicase MDA-5, une protéine activant la production d’interféron β, et l’inhibe. Elle interagit également avec Jak1 et STAT1, 2 protéines présentes dans la signalisation induites par le récepteur d’interférons de type 1. Elle bloque donc les voies de signalisation cellulaire en lien avec les interférons. 
-La protéine C
-Protéine C : Tout comme V, cette protéine inhibe la voie des interférons une fois le virus entré dans une cellule hôte. En plus de cela, elle joue un rôle dans l’infectiosité du virus.
-Protéine de matrice (M)
-Protéine de matrice M : Cette protéine hydrophobe recouvre la surface interne de l’enveloppe du virus. Elle n’est pas une partie intégrante de l’enveloppe, mais elle y est reliée. Elle est aussi reliée au complexe RNP, permettant ainsi le maintien de la structure du virus. 
-Protéine de fusion (F)
-Protéine de fusion F : C’est la protéine qui permet de faire fusionner l’enveloppe du virus avec la membrane de la cellule. Son peptide de fusion se trouve dans sa partie N-terminale. C’est cette protéine qui est également responsable de la formation des cellules de Warthin-Finkeldey, cellules géantes retrouvées lors d’un cas de rougeole. En effet, les protéines de fusion sont exprimées à la surface des cellules infectées, permettant à celles-ci de s’associer à leurs cellules voisines pour former des syncitia. La protéine F se retrouve sous forme trimérique à la surface du virus. Elle est d’abord synthétisée sous une forme inactive appelée F0. C’est la furine protéase d’une cellule hôte qui peut l’activer, donnant 2 sous-unités, F1 et F2, liées entre elles par un pont disulfure. 
-Protéine d'adhésion (H)
-Hémagglutinine H : L’hémagglutinine est une glycoprotéine qui permet d’attacher le virus à la cellule cible en reconnaissant un récepteur particulier. Elle est retrouvée  sous forme dimérique pouvant former des tétramères à la surface du virus. Selon certaines études, sa liaison avec un récepteur cellulaire entrainerait une modification de la forme d’une protéine de fusion adjacente qui libèrerait alors son peptide de fusion hydrophobe et pourrait l’insérer dans la membrane cellulaire. 
-ARN polymérase ARN dépendante (L)
-Protéine large L : Cette protéine forme avec la protéine P l’ARN polymérase ARN-dépendant faisant partie du complexe de transcription. C’est elle qui assure les fonctions d’une polymérase comme la transcription, la réplication, l’ajout de la coiffe et de la queue poly A à l’ARNm. 
-La nucléocapside</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le MV est un virus possédant une enveloppe faite d’une double couche de lipides qui entoure une nucléocapside à symétrie hélicoïdale. Son diamètre varie entre 120 et 300 nm.
+</t>
         </is>
       </c>
     </row>
@@ -684,10 +675,385 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Composantes du virus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Génome</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Son génome est un brin d’ARN négatif non segmenté composé de 15 894 nucléotides formant 6 gènes qui codent au moins 8 protéines différentes. Un seul promoteur est présent dans le génome et se trouve à l’extrémité 3’. Il a une longueur de 56 nucléotides. À l’autre extrémité se trouve le terminateur d’une longueur de 40 nucléotides. Chaque gène est séparé du suivant par 3 nucléotides qui ne sont pas transcrits lors de la transcription. 
+Sur le brin positif, l’ordre des 6 gènes est le suivant : N - P/V/C - M - F - H - L ; chaque lettre représentant une protéine. Dans le cas du deuxième gène deux phénomènes se produisent entraînant la production d'au moins trois protéines :
+une initiation alternative de traduction de l'ARN messager conduit à la production de la protéine P ou C
+une édition de l'ARN messager - par ajout de G par l'ARN polymérase entraînant un changement de cadre de lecture - conduit à la production de la protéine V</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Virus_de_la_rougeole</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Virus_de_la_rougeole</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Composantes du virus</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protéines virales</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>La nucléoprotéine (N)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La nucléoprotéine est composée de 525 acides aminés. C'est la protéine la plus abondante dans le virus. Elle forme la nucléocapside en se liant tout le long de l'ARN génomique. Elle interagit aussi avec la phosphoprotéine (P), soit à l'état de monomère soluble, soit à l'état de nucléocapside.
+Elle est constituée de deux domaines :
+un domaine structuré N-terminal d'environ 400 résidus qui contient le domaine de liaison à l'ARN. Ce domaine peut se lier à P lorsque N n'est pas liée à l'ARN
+un domaine non structuré d'une centaine de résidus en C-terminal qui contient un site de liaison à P accessible dans le contexte de la nucléocapside</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Virus_de_la_rougeole</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Virus_de_la_rougeole</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Composantes du virus</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protéines virales</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>La phosphoprotéine (P)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La phosphoprotéine est une protéine de 507 acides aminés qui correspond au produit de traduction le plus long du deuxième gène. Dans le virus, cette protéine a deux rôles : un rôle de chaperonne pour garder N sous forme monomérique et l’empêcher de lier de l'ARN et un rôle de cofacteur de l'ARN polymérase. Dans ce dernier cas, P interagit à la fois avec la nucléocapside et avec l'ARN polymérase.
+P est une protéine tétramérique, elle est composée de deux domaines structurés :
+un domaine central d'environ 80 résidus qui permet sa tétramérisation et qui semble aussi contenir le site de liaison à l'ARN polymérase
+un domaine C-terminal d'une quarantaine de résidus responsable de l'interaction avec le domaine C-terminal non structuré de N dans le contexte de la nucléocapside
+Entre ces domaines structurés, P possède des régions désordonnées aussi responsables d'interactions. Les 300 premiers résidus contiennent le deuxième site de liaison à N (rôle de chaperonne) mais aussi un site d'interaction avec la protéine STAT1,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Virus_de_la_rougeole</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Virus_de_la_rougeole</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Composantes du virus</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protéines virales</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>La protéine V</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Protéine V : La principale fonction de cette protéine est de bloquer la réponse immunitaire innée de l’hôte et ainsi permettre la propagation du virus. Elle se lie à l’hélicase MDA-5, une protéine activant la production d’interféron β, et l’inhibe. Elle interagit également avec Jak1 et STAT1, 2 protéines présentes dans la signalisation induites par le récepteur d’interférons de type 1. Elle bloque donc les voies de signalisation cellulaire en lien avec les interférons. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Virus_de_la_rougeole</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Virus_de_la_rougeole</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Composantes du virus</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protéines virales</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>La protéine C</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Protéine C : Tout comme V, cette protéine inhibe la voie des interférons une fois le virus entré dans une cellule hôte. En plus de cela, elle joue un rôle dans l’infectiosité du virus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Virus_de_la_rougeole</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Virus_de_la_rougeole</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Composantes du virus</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protéines virales</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Protéine de matrice (M)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Protéine de matrice M : Cette protéine hydrophobe recouvre la surface interne de l’enveloppe du virus. Elle n’est pas une partie intégrante de l’enveloppe, mais elle y est reliée. Elle est aussi reliée au complexe RNP, permettant ainsi le maintien de la structure du virus. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Virus_de_la_rougeole</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Virus_de_la_rougeole</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Composantes du virus</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Protéines virales</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Protéine de fusion (F)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Protéine de fusion F : C’est la protéine qui permet de faire fusionner l’enveloppe du virus avec la membrane de la cellule. Son peptide de fusion se trouve dans sa partie N-terminale. C’est cette protéine qui est également responsable de la formation des cellules de Warthin-Finkeldey, cellules géantes retrouvées lors d’un cas de rougeole. En effet, les protéines de fusion sont exprimées à la surface des cellules infectées, permettant à celles-ci de s’associer à leurs cellules voisines pour former des syncitia. La protéine F se retrouve sous forme trimérique à la surface du virus. Elle est d’abord synthétisée sous une forme inactive appelée F0. C’est la furine protéase d’une cellule hôte qui peut l’activer, donnant 2 sous-unités, F1 et F2, liées entre elles par un pont disulfure. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Virus_de_la_rougeole</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Virus_de_la_rougeole</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Composantes du virus</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Protéines virales</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Protéine d'adhésion (H)</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hémagglutinine H : L’hémagglutinine est une glycoprotéine qui permet d’attacher le virus à la cellule cible en reconnaissant un récepteur particulier. Elle est retrouvée  sous forme dimérique pouvant former des tétramères à la surface du virus. Selon certaines études, sa liaison avec un récepteur cellulaire entrainerait une modification de la forme d’une protéine de fusion adjacente qui libèrerait alors son peptide de fusion hydrophobe et pourrait l’insérer dans la membrane cellulaire. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Virus_de_la_rougeole</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Virus_de_la_rougeole</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Composantes du virus</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Protéines virales</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>ARN polymérase ARN dépendante (L)</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Protéine large L : Cette protéine forme avec la protéine P l’ARN polymérase ARN-dépendant faisant partie du complexe de transcription. C’est elle qui assure les fonctions d’une polymérase comme la transcription, la réplication, l’ajout de la coiffe et de la queue poly A à l’ARNm. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Virus_de_la_rougeole</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Virus_de_la_rougeole</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Tropisme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Le MV pénètre dans l’organisme par le système respiratoire. Il se réplique d’abord dans les cellules immunitaires (macrophages alvéolaires et cellules dendritiques) résidant dans les muqueuses respiratoires. Ces cellules infectées se rendent ensuite vers les ganglions lymphatiques, où elles transmettent le virus aux lymphocytes et les monocytes présents. L’infection se répand ensuite dans  les organes lymphoïdes secondaires. Aux stages tardifs de l'infection, un grand nombre de cellules immunitaires infectées circulent dans l'organisme et transmettent le virus aux cellules épithéliales de l'appareil respiratoire.
 Contrairement aux autres paramyxovirus, les morbillivirus n’utilisent pas l’acide sialique comme récepteur. C’est pourquoi ils n’ont pas besoin de neuraminidase à leur surface, une protéine qui sert à briser les acides sialiques. Les souches sauvages du virus de la rougeole utilisent les récepteurs SLAM et Nectine-4; les souches vaccinales peuvent aussi utiliser le récepteur CD46.
@@ -697,31 +1063,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Virus_de_la_rougeole</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Virologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Virus_de_la_rougeole</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Virus_de_la_rougeole</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Virus_de_la_rougeole</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Cycle de réplication</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">La réplication du virus de la rougeole se fait comme celle de tous les virus à génome ARN négatif. Cependant, des études ont montré que le noyau aurait peut-être un rôle à jouer, mais des recherches restent encore à faire à ce sujet. Les méthodes utilisées par le virus pour détourner les composants cellulaires à leur profit et leur permettre de s’assembler et de sortir de la cellule ne sont pas encore connus. 
 L’entrée du virus de la rougeole peut se faire soit par fusion (la plupart du temps), soit par endocytose. Si c’est par endocytose, une étape de plus s’ajoute au cycle. Une protéine présente dans la membrane de l’endosome doit d’abord faire entrer des ions H+ dans l’endosome pour que le milieu devienne acide. Cela induit un changement dans la forme des protéines transmembranaires virales, permettant la fusion de l’enveloppe avec la membrane cellulaire. La nucléocapside est alors libérée dans le cytoplasme. 
@@ -731,33 +1099,35 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Virus_de_la_rougeole</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Virologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Virus_de_la_rougeole</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Virus_de_la_rougeole</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Virus_de_la_rougeole</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Animaux sensibles</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’inoculation de souches sauvages au singe produit une infection généralement bénigne, sauf chez le ouistiti qui peut développer une forme sévère [17].
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’inoculation de souches sauvages au singe produit une infection généralement bénigne, sauf chez le ouistiti qui peut développer une forme sévère .
 </t>
         </is>
       </c>
